--- a/mobi_client/mobi_client/mobi_config/excel/单人推理表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/单人推理表.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -707,6 +707,9 @@
   </si>
   <si>
     <t>xt_dianzhuang_solo|成功1-2</t>
+  </si>
+  <si>
+    <t>xt_dianzhuang_2_kangxin|逻辑结束</t>
   </si>
   <si>
     <t>3010202|3010204</t>
@@ -1896,7 +1899,7 @@
   <dimension ref="A1:XFD38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2754,7 +2757,9 @@
       <c r="D33" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" s="18" t="s">
+        <v>106</v>
+      </c>
       <c r="F33" s="18">
         <v>3011206</v>
       </c>
@@ -2773,16 +2778,16 @@
         <v>3010001</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C34" s="18">
         <v>3010205</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F34" s="18">
         <v>3010205</v>
@@ -2802,16 +2807,16 @@
         <v>3013001</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C35" s="18">
         <v>3013206</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F35" s="18">
         <v>3013206</v>
@@ -2831,13 +2836,13 @@
         <v>3016001</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C36" s="24">
         <v>3016205</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
@@ -19225,16 +19230,16 @@
         <v>3016002</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C37" s="24">
         <v>3016206</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F37" s="24">
         <v>3016206</v>
@@ -35623,16 +35628,16 @@
         <v>3022001</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C38" s="7">
         <v>3022204</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F38" s="7">
         <v>3022204</v>
